--- a/data/pca/factorExposure/factorExposure_2014-11-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.002055490831585109</v>
+        <v>0.00882468675639861</v>
       </c>
       <c r="C2">
-        <v>0.0820336297077489</v>
+        <v>0.07293695820024539</v>
       </c>
       <c r="D2">
-        <v>0.138600645352668</v>
+        <v>0.003797828602209854</v>
       </c>
       <c r="E2">
-        <v>-0.1624384980819553</v>
+        <v>0.1789559398927829</v>
       </c>
       <c r="F2">
-        <v>0.1585599670050338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04626343303545181</v>
+      </c>
+      <c r="G2">
+        <v>0.05704739428142605</v>
+      </c>
+      <c r="H2">
+        <v>-0.06351015068482065</v>
+      </c>
+      <c r="I2">
+        <v>0.09496884886041644</v>
+      </c>
+      <c r="J2">
+        <v>-0.2295332251522087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01670030107880754</v>
+        <v>0.0125443950820548</v>
       </c>
       <c r="C4">
-        <v>0.1519400800268977</v>
+        <v>0.1527772201501311</v>
       </c>
       <c r="D4">
-        <v>0.06287515011440993</v>
+        <v>-0.02841303647635044</v>
       </c>
       <c r="E4">
-        <v>-0.07479064521934735</v>
+        <v>0.09914766411663742</v>
       </c>
       <c r="F4">
-        <v>-0.05263840723255027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06223152484350322</v>
+      </c>
+      <c r="G4">
+        <v>5.169429673993226e-05</v>
+      </c>
+      <c r="H4">
+        <v>-0.1049061407943161</v>
+      </c>
+      <c r="I4">
+        <v>-0.03215280580298668</v>
+      </c>
+      <c r="J4">
+        <v>-0.1380773131312371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01868739973521497</v>
+        <v>0.0327910239666354</v>
       </c>
       <c r="C6">
-        <v>0.0709557452830286</v>
+        <v>0.07287219862601141</v>
       </c>
       <c r="D6">
-        <v>0.05772302634725698</v>
+        <v>-0.008800882507642686</v>
       </c>
       <c r="E6">
-        <v>-0.09835534820807124</v>
+        <v>0.1115152044014166</v>
       </c>
       <c r="F6">
-        <v>-0.02168721829160754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03011005652302404</v>
+      </c>
+      <c r="G6">
+        <v>-0.04729886235207872</v>
+      </c>
+      <c r="H6">
+        <v>-0.03354442414042187</v>
+      </c>
+      <c r="I6">
+        <v>0.04727823391173079</v>
+      </c>
+      <c r="J6">
+        <v>-0.0215468224129064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0170367339170148</v>
+        <v>0.006518978904056789</v>
       </c>
       <c r="C7">
-        <v>0.05201568670033554</v>
+        <v>0.06719983528405514</v>
       </c>
       <c r="D7">
-        <v>0.02709249521548386</v>
+        <v>-0.005809897810103753</v>
       </c>
       <c r="E7">
-        <v>-0.06140205308501829</v>
+        <v>0.04781317767623452</v>
       </c>
       <c r="F7">
-        <v>-0.0164675592404899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01964231415003271</v>
+      </c>
+      <c r="G7">
+        <v>-0.06706278110968097</v>
+      </c>
+      <c r="H7">
+        <v>-0.08128590180454431</v>
+      </c>
+      <c r="I7">
+        <v>0.003568124938081194</v>
+      </c>
+      <c r="J7">
+        <v>-0.03655282867786665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0152027411465859</v>
+        <v>-0.009011328015214606</v>
       </c>
       <c r="C8">
-        <v>0.07890548031786801</v>
+        <v>0.07431444046537407</v>
       </c>
       <c r="D8">
-        <v>0.04692967450545598</v>
+        <v>-0.02736471844259061</v>
       </c>
       <c r="E8">
-        <v>-0.1314979312976129</v>
+        <v>0.09010228554366156</v>
       </c>
       <c r="F8">
-        <v>0.06000311037598781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02505984652681419</v>
+      </c>
+      <c r="G8">
+        <v>0.05445652286584219</v>
+      </c>
+      <c r="H8">
+        <v>-0.02855433723010817</v>
+      </c>
+      <c r="I8">
+        <v>0.004951185636289168</v>
+      </c>
+      <c r="J8">
+        <v>-0.006850108357255431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.008746617400086969</v>
+        <v>0.007691731633290707</v>
       </c>
       <c r="C9">
-        <v>0.1291806389288616</v>
+        <v>0.1179838125024767</v>
       </c>
       <c r="D9">
-        <v>0.0382161071171654</v>
+        <v>-0.02114118440566879</v>
       </c>
       <c r="E9">
-        <v>-0.06286926096228083</v>
+        <v>0.06046245489178995</v>
       </c>
       <c r="F9">
-        <v>-0.03810639562267142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01055642312240708</v>
+      </c>
+      <c r="G9">
+        <v>-0.005964988573493739</v>
+      </c>
+      <c r="H9">
+        <v>-0.09968432298610894</v>
+      </c>
+      <c r="I9">
+        <v>-0.0005130322059722818</v>
+      </c>
+      <c r="J9">
+        <v>-0.06100647066486738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2585400658780605</v>
+        <v>0.2510760137527334</v>
       </c>
       <c r="C10">
-        <v>-0.08742506138285096</v>
+        <v>-0.08152971521050154</v>
       </c>
       <c r="D10">
-        <v>0.04120976782958099</v>
+        <v>0.004889854200191448</v>
       </c>
       <c r="E10">
-        <v>0.04341479520917579</v>
+        <v>0.0120197231580171</v>
       </c>
       <c r="F10">
-        <v>-0.003800018858053706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01434323413171497</v>
+      </c>
+      <c r="G10">
+        <v>-0.01443246335279051</v>
+      </c>
+      <c r="H10">
+        <v>-0.0294426771401516</v>
+      </c>
+      <c r="I10">
+        <v>-0.1656217063917819</v>
+      </c>
+      <c r="J10">
+        <v>0.09447805063552148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.004519211234820601</v>
+        <v>0.01078357927730825</v>
       </c>
       <c r="C11">
-        <v>0.06440472965722394</v>
+        <v>0.08049099536136876</v>
       </c>
       <c r="D11">
-        <v>0.01463149042177522</v>
+        <v>-0.02052645272122921</v>
       </c>
       <c r="E11">
-        <v>-0.03217569210487647</v>
+        <v>0.01882815107629666</v>
       </c>
       <c r="F11">
-        <v>-0.07335484529350562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.009579720456163726</v>
+      </c>
+      <c r="G11">
+        <v>-0.03373666643430669</v>
+      </c>
+      <c r="H11">
+        <v>-0.02715545678593817</v>
+      </c>
+      <c r="I11">
+        <v>-0.005259206794228527</v>
+      </c>
+      <c r="J11">
+        <v>0.03663082488693942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.004299215928506719</v>
+        <v>0.01161527175971346</v>
       </c>
       <c r="C12">
-        <v>0.06057138441115432</v>
+        <v>0.06310457640358627</v>
       </c>
       <c r="D12">
-        <v>0.01077936082905188</v>
+        <v>-0.009352709577781008</v>
       </c>
       <c r="E12">
-        <v>-0.02376881377521706</v>
+        <v>0.01692540032772339</v>
       </c>
       <c r="F12">
-        <v>-0.05806427896600541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02018531474651707</v>
+      </c>
+      <c r="G12">
+        <v>-0.03811968331372916</v>
+      </c>
+      <c r="H12">
+        <v>-0.02916763659242562</v>
+      </c>
+      <c r="I12">
+        <v>-0.01064533111854227</v>
+      </c>
+      <c r="J12">
+        <v>0.01095775858027822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.008569718289974422</v>
+        <v>0.001905718269807057</v>
       </c>
       <c r="C13">
-        <v>0.09000669621642031</v>
+        <v>0.1108809198735667</v>
       </c>
       <c r="D13">
-        <v>0.06161986028401668</v>
+        <v>-0.001462730639693899</v>
       </c>
       <c r="E13">
-        <v>-0.1280713570089238</v>
+        <v>0.1448836374158116</v>
       </c>
       <c r="F13">
-        <v>-0.1286847968692053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1023196650798654</v>
+      </c>
+      <c r="G13">
+        <v>-0.09218258556894712</v>
+      </c>
+      <c r="H13">
+        <v>-0.07853607344860866</v>
+      </c>
+      <c r="I13">
+        <v>-0.114187181830204</v>
+      </c>
+      <c r="J13">
+        <v>0.05851445925852408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.001682641663068439</v>
+        <v>0.01124075447948164</v>
       </c>
       <c r="C14">
-        <v>0.05778193598444566</v>
+        <v>0.07589709729549676</v>
       </c>
       <c r="D14">
-        <v>0.03129708664761686</v>
+        <v>-0.02367390782306405</v>
       </c>
       <c r="E14">
-        <v>-0.05037640611905032</v>
+        <v>0.08138677036350632</v>
       </c>
       <c r="F14">
-        <v>-0.03861801623772141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03785170981597939</v>
+      </c>
+      <c r="G14">
+        <v>-0.1030396127150147</v>
+      </c>
+      <c r="H14">
+        <v>-0.1802280863796029</v>
+      </c>
+      <c r="I14">
+        <v>0.02777787508785094</v>
+      </c>
+      <c r="J14">
+        <v>0.1574474976859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0005760672523196589</v>
+        <v>-0.001251389204950875</v>
       </c>
       <c r="C15">
-        <v>0.07355345455077486</v>
+        <v>0.07217303697806889</v>
       </c>
       <c r="D15">
-        <v>0.04309964618693224</v>
+        <v>-0.01271395766248264</v>
       </c>
       <c r="E15">
-        <v>-0.09584592201311347</v>
+        <v>0.06467829739010518</v>
       </c>
       <c r="F15">
-        <v>-0.0326668185314646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.004798996640255629</v>
+      </c>
+      <c r="G15">
+        <v>-0.0405722478119042</v>
+      </c>
+      <c r="H15">
+        <v>-0.06207388861292012</v>
+      </c>
+      <c r="I15">
+        <v>0.00770167513196654</v>
+      </c>
+      <c r="J15">
+        <v>0.05007483006350961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.008185285552609551</v>
+        <v>0.01108742331721</v>
       </c>
       <c r="C16">
-        <v>0.0594419254585528</v>
+        <v>0.06724472835048788</v>
       </c>
       <c r="D16">
-        <v>0.01626160337779743</v>
+        <v>-0.01026646866575543</v>
       </c>
       <c r="E16">
-        <v>-0.02050217576730879</v>
+        <v>0.01155769575139424</v>
       </c>
       <c r="F16">
-        <v>-0.0594141412232441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001455259758030244</v>
+      </c>
+      <c r="G16">
+        <v>-0.03327463758878961</v>
+      </c>
+      <c r="H16">
+        <v>-0.02661888099211011</v>
+      </c>
+      <c r="I16">
+        <v>-0.009105879648477044</v>
+      </c>
+      <c r="J16">
+        <v>0.01004826177874451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.002120342358226055</v>
+        <v>0.00599211929027412</v>
       </c>
       <c r="C20">
-        <v>0.0718092504355012</v>
+        <v>0.0851953399197644</v>
       </c>
       <c r="D20">
-        <v>0.04408890963676822</v>
+        <v>-0.002463475040360621</v>
       </c>
       <c r="E20">
-        <v>-0.04904858359826645</v>
+        <v>0.03719894071469554</v>
       </c>
       <c r="F20">
-        <v>-0.09930017382550432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01706677598030803</v>
+      </c>
+      <c r="G20">
+        <v>-0.07543921695646366</v>
+      </c>
+      <c r="H20">
+        <v>-0.05735690549060971</v>
+      </c>
+      <c r="I20">
+        <v>0.005433880425418306</v>
+      </c>
+      <c r="J20">
+        <v>-0.002916682391318693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.002852250514161617</v>
+        <v>0.008653871444410256</v>
       </c>
       <c r="C21">
-        <v>0.09130185359779712</v>
+        <v>0.08464369175010239</v>
       </c>
       <c r="D21">
-        <v>0.07867643014860003</v>
+        <v>-0.005583134276077273</v>
       </c>
       <c r="E21">
-        <v>-0.04061762353158392</v>
+        <v>0.07253276576086945</v>
       </c>
       <c r="F21">
-        <v>0.01182529218957739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07714267030708741</v>
+      </c>
+      <c r="G21">
+        <v>-0.01407870098192603</v>
+      </c>
+      <c r="H21">
+        <v>-0.1542911237699555</v>
+      </c>
+      <c r="I21">
+        <v>-0.0385666020889875</v>
+      </c>
+      <c r="J21">
+        <v>0.04218346614048999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01139530253469037</v>
+        <v>-0.01506436369196709</v>
       </c>
       <c r="C22">
-        <v>0.1336084974390732</v>
+        <v>0.1450351194535491</v>
       </c>
       <c r="D22">
-        <v>0.2496576163325513</v>
+        <v>0.0293111191024629</v>
       </c>
       <c r="E22">
-        <v>-0.2103816206678775</v>
+        <v>0.3961763656922274</v>
       </c>
       <c r="F22">
-        <v>0.1885202491020188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1356762815506592</v>
+      </c>
+      <c r="G22">
+        <v>0.2634016809166703</v>
+      </c>
+      <c r="H22">
+        <v>0.3670273601996187</v>
+      </c>
+      <c r="I22">
+        <v>-0.03291525176158219</v>
+      </c>
+      <c r="J22">
+        <v>0.2040273771407287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01190206287595251</v>
+        <v>-0.01144620226743247</v>
       </c>
       <c r="C23">
-        <v>0.1352119007305368</v>
+        <v>0.1494594488403268</v>
       </c>
       <c r="D23">
-        <v>0.2481125468064075</v>
+        <v>0.0316405420848388</v>
       </c>
       <c r="E23">
-        <v>-0.2085195443592471</v>
+        <v>0.3866145661935523</v>
       </c>
       <c r="F23">
-        <v>0.1882812139230992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1289698610336693</v>
+      </c>
+      <c r="G23">
+        <v>0.2545492602123235</v>
+      </c>
+      <c r="H23">
+        <v>0.3429475155019626</v>
+      </c>
+      <c r="I23">
+        <v>-0.03664850773309104</v>
+      </c>
+      <c r="J23">
+        <v>0.1942021548183259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0008425130521160756</v>
+        <v>0.01109219720995671</v>
       </c>
       <c r="C24">
-        <v>0.07675966796506559</v>
+        <v>0.07795409274558759</v>
       </c>
       <c r="D24">
-        <v>0.00521664490883721</v>
+        <v>-0.02537977356615673</v>
       </c>
       <c r="E24">
-        <v>-0.04002920460835246</v>
+        <v>0.02119902400478871</v>
       </c>
       <c r="F24">
-        <v>-0.06357794254090353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0030777044768088</v>
+      </c>
+      <c r="G24">
+        <v>-0.03872268141038075</v>
+      </c>
+      <c r="H24">
+        <v>-0.03895750055517288</v>
+      </c>
+      <c r="I24">
+        <v>-0.002840474370069481</v>
+      </c>
+      <c r="J24">
+        <v>0.01618950379598625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.00974128754659589</v>
+        <v>0.01769034574200505</v>
       </c>
       <c r="C25">
-        <v>0.07247363502195885</v>
+        <v>0.07577443632968525</v>
       </c>
       <c r="D25">
-        <v>0.0115611791509014</v>
+        <v>-0.0152957910234188</v>
       </c>
       <c r="E25">
-        <v>-0.01778635495316159</v>
+        <v>0.01613334247825943</v>
       </c>
       <c r="F25">
-        <v>-0.05789147062906333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.007237304544092371</v>
+      </c>
+      <c r="G25">
+        <v>-0.03100200297014154</v>
+      </c>
+      <c r="H25">
+        <v>-0.02875380468104438</v>
+      </c>
+      <c r="I25">
+        <v>-0.01650538128499298</v>
+      </c>
+      <c r="J25">
+        <v>0.03650195355822342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.007197425266158033</v>
+        <v>0.01776615898032622</v>
       </c>
       <c r="C26">
-        <v>0.05257519797869158</v>
+        <v>0.06326332597781703</v>
       </c>
       <c r="D26">
-        <v>0.0173661292260495</v>
+        <v>-0.04394395613326049</v>
       </c>
       <c r="E26">
-        <v>-0.05630757814694277</v>
+        <v>0.03560739773022742</v>
       </c>
       <c r="F26">
-        <v>-0.02699615611398733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006395105096425832</v>
+      </c>
+      <c r="G26">
+        <v>-0.03008288504710053</v>
+      </c>
+      <c r="H26">
+        <v>-0.1173793351325649</v>
+      </c>
+      <c r="I26">
+        <v>-0.01967336383893721</v>
+      </c>
+      <c r="J26">
+        <v>-0.07365625604110754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3363298227842426</v>
+        <v>0.3174265710764084</v>
       </c>
       <c r="C28">
-        <v>-0.09938178772372229</v>
+        <v>-0.1026671999960088</v>
       </c>
       <c r="D28">
-        <v>0.03739718139510018</v>
+        <v>0.02343044473926317</v>
       </c>
       <c r="E28">
-        <v>0.07300852157295064</v>
+        <v>0.01618924524751869</v>
       </c>
       <c r="F28">
-        <v>0.01152264604123328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04486506350091955</v>
+      </c>
+      <c r="G28">
+        <v>0.07489249557770522</v>
+      </c>
+      <c r="H28">
+        <v>-0.07713762026087143</v>
+      </c>
+      <c r="I28">
+        <v>-0.1718485596470441</v>
+      </c>
+      <c r="J28">
+        <v>-0.05249443975947456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0008326065989758004</v>
+        <v>0.006762793296277474</v>
       </c>
       <c r="C29">
-        <v>0.05899447762218955</v>
+        <v>0.08041122270578638</v>
       </c>
       <c r="D29">
-        <v>0.04341757844899756</v>
+        <v>-0.02094071212776544</v>
       </c>
       <c r="E29">
-        <v>-0.08944788092323533</v>
+        <v>0.1230642132967724</v>
       </c>
       <c r="F29">
-        <v>-0.07939719030719182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.05092202906819</v>
+      </c>
+      <c r="G29">
+        <v>-0.1591275238449106</v>
+      </c>
+      <c r="H29">
+        <v>-0.252946712995927</v>
+      </c>
+      <c r="I29">
+        <v>0.04910372229253795</v>
+      </c>
+      <c r="J29">
+        <v>0.2366541059073482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.0160885012133333</v>
+        <v>0.01822622014643916</v>
       </c>
       <c r="C30">
-        <v>0.1760504489419575</v>
+        <v>0.1577043979274339</v>
       </c>
       <c r="D30">
-        <v>0.0378061060105629</v>
+        <v>-0.03452738221956542</v>
       </c>
       <c r="E30">
-        <v>-0.08881959799434008</v>
+        <v>0.07429464165917185</v>
       </c>
       <c r="F30">
-        <v>-0.01258231804260437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02088776617534394</v>
+      </c>
+      <c r="G30">
+        <v>0.01059815342582474</v>
+      </c>
+      <c r="H30">
+        <v>-0.02731113637602894</v>
+      </c>
+      <c r="I30">
+        <v>0.01238007980210221</v>
+      </c>
+      <c r="J30">
+        <v>-0.07925391089288042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.008711502491960427</v>
+        <v>0.005421422859177185</v>
       </c>
       <c r="C31">
-        <v>0.09876319808125003</v>
+        <v>0.0983489068888878</v>
       </c>
       <c r="D31">
-        <v>-0.03495361321346376</v>
+        <v>-0.03039666108051193</v>
       </c>
       <c r="E31">
-        <v>0.01061206061427976</v>
+        <v>-0.01514327514038518</v>
       </c>
       <c r="F31">
-        <v>0.02635214271297366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001772693688640575</v>
+      </c>
+      <c r="G31">
+        <v>0.02970568977001</v>
+      </c>
+      <c r="H31">
+        <v>-0.04817866289059613</v>
+      </c>
+      <c r="I31">
+        <v>-0.03198543585529409</v>
+      </c>
+      <c r="J31">
+        <v>0.0470137010344188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.02590409165020646</v>
+        <v>0.02232691527219241</v>
       </c>
       <c r="C32">
-        <v>0.0761168857396112</v>
+        <v>0.06879605672618437</v>
       </c>
       <c r="D32">
-        <v>0.1117627738401969</v>
+        <v>0.01047470091485487</v>
       </c>
       <c r="E32">
-        <v>-0.08614683895823889</v>
+        <v>0.1277288503576116</v>
       </c>
       <c r="F32">
-        <v>-0.02292571672564301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03420436018100752</v>
+      </c>
+      <c r="G32">
+        <v>-0.02599015672852976</v>
+      </c>
+      <c r="H32">
+        <v>-0.1087189339311745</v>
+      </c>
+      <c r="I32">
+        <v>-0.2377375459731698</v>
+      </c>
+      <c r="J32">
+        <v>-0.03652479138316041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.001691309143631674</v>
+        <v>0.009528779848674101</v>
       </c>
       <c r="C33">
-        <v>0.09387504705607845</v>
+        <v>0.1111327611132179</v>
       </c>
       <c r="D33">
-        <v>0.014866789656802</v>
+        <v>-0.01706168655060125</v>
       </c>
       <c r="E33">
-        <v>-0.05704536941690351</v>
+        <v>0.04905927682927818</v>
       </c>
       <c r="F33">
-        <v>-0.03854091777838889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.003792198827060499</v>
+      </c>
+      <c r="G33">
+        <v>-0.0384652357100595</v>
+      </c>
+      <c r="H33">
+        <v>-0.05214286995735479</v>
+      </c>
+      <c r="I33">
+        <v>-0.02716040280451899</v>
+      </c>
+      <c r="J33">
+        <v>0.01597973613522057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0001915743548600483</v>
+        <v>0.01182072088674589</v>
       </c>
       <c r="C34">
-        <v>0.058270150212018</v>
+        <v>0.05640669541273247</v>
       </c>
       <c r="D34">
-        <v>0.001368775029265854</v>
+        <v>-0.0140650240069067</v>
       </c>
       <c r="E34">
-        <v>-0.01726325807382055</v>
+        <v>0.006038627969384312</v>
       </c>
       <c r="F34">
-        <v>-0.04726138930571375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.008415808832935703</v>
+      </c>
+      <c r="G34">
+        <v>-0.02963011613115375</v>
+      </c>
+      <c r="H34">
+        <v>0.0001882871234603842</v>
+      </c>
+      <c r="I34">
+        <v>-0.02099239297844269</v>
+      </c>
+      <c r="J34">
+        <v>0.0183077069691972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001842396468936923</v>
+        <v>0.00624266086019466</v>
       </c>
       <c r="C35">
-        <v>0.009632127832764951</v>
+        <v>0.03647200799437214</v>
       </c>
       <c r="D35">
-        <v>0.008731554445451213</v>
+        <v>-0.005952550678923023</v>
       </c>
       <c r="E35">
-        <v>-0.0105047735527565</v>
+        <v>0.04108129360279451</v>
       </c>
       <c r="F35">
-        <v>-0.01778490794387702</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01077998171654136</v>
+      </c>
+      <c r="G35">
+        <v>-0.06626672953927397</v>
+      </c>
+      <c r="H35">
+        <v>-0.1225342948426107</v>
+      </c>
+      <c r="I35">
+        <v>-0.003716183000430675</v>
+      </c>
+      <c r="J35">
+        <v>0.174809512699098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.004248278712817525</v>
+        <v>0.009531840583717994</v>
       </c>
       <c r="C36">
-        <v>0.04432225208577443</v>
+        <v>0.04947781695863435</v>
       </c>
       <c r="D36">
-        <v>0.01200758861916174</v>
+        <v>-0.03246045402577113</v>
       </c>
       <c r="E36">
-        <v>-0.06777749562517499</v>
+        <v>0.04479352787372319</v>
       </c>
       <c r="F36">
-        <v>-0.02477840371129541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002323570138885886</v>
+      </c>
+      <c r="G36">
+        <v>-0.02591376956912491</v>
+      </c>
+      <c r="H36">
+        <v>-0.0662288673822312</v>
+      </c>
+      <c r="I36">
+        <v>-0.009174659247250432</v>
+      </c>
+      <c r="J36">
+        <v>-0.02040147958858726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01248098305135471</v>
+        <v>0.008456047981479625</v>
       </c>
       <c r="C38">
-        <v>0.04928845337389533</v>
+        <v>0.06482035209008724</v>
       </c>
       <c r="D38">
-        <v>0.02121797820363251</v>
+        <v>-0.01979356298471795</v>
       </c>
       <c r="E38">
-        <v>-0.051960420511124</v>
+        <v>0.04675122257045007</v>
       </c>
       <c r="F38">
-        <v>-0.00892820571325228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04471634141586556</v>
+      </c>
+      <c r="G38">
+        <v>-0.01976503322619828</v>
+      </c>
+      <c r="H38">
+        <v>-0.0532251014096109</v>
+      </c>
+      <c r="I38">
+        <v>-0.0293013202504471</v>
+      </c>
+      <c r="J38">
+        <v>0.04671803796534924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.0009281404166586318</v>
+        <v>0.008179215091424261</v>
       </c>
       <c r="C39">
-        <v>0.1350700152720923</v>
+        <v>0.1320510480290901</v>
       </c>
       <c r="D39">
-        <v>0.02710444498754257</v>
+        <v>-0.03641422470024697</v>
       </c>
       <c r="E39">
-        <v>-0.06334769091954857</v>
+        <v>0.03205560190214378</v>
       </c>
       <c r="F39">
-        <v>-0.07526879829098278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01717445262556272</v>
+      </c>
+      <c r="G39">
+        <v>-0.05833292871465436</v>
+      </c>
+      <c r="H39">
+        <v>-0.03752503271346244</v>
+      </c>
+      <c r="I39">
+        <v>0.03329070212015764</v>
+      </c>
+      <c r="J39">
+        <v>-0.0004922154000057486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.004773811175309233</v>
+        <v>0.009787289942518233</v>
       </c>
       <c r="C40">
-        <v>0.02947689264673044</v>
+        <v>0.06093259811291627</v>
       </c>
       <c r="D40">
-        <v>0.03648169745406628</v>
+        <v>-0.01131885535445251</v>
       </c>
       <c r="E40">
-        <v>-0.1244002534663349</v>
+        <v>0.1197974698194258</v>
       </c>
       <c r="F40">
-        <v>-0.02850771808238148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0231444853475506</v>
+      </c>
+      <c r="G40">
+        <v>-0.1089530659763167</v>
+      </c>
+      <c r="H40">
+        <v>0.01465193688567553</v>
+      </c>
+      <c r="I40">
+        <v>-0.02497501548692306</v>
+      </c>
+      <c r="J40">
+        <v>0.1914584250114994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.008468030724287666</v>
+        <v>0.01890120762455184</v>
       </c>
       <c r="C41">
-        <v>0.02099931660746036</v>
+        <v>0.04833460304856618</v>
       </c>
       <c r="D41">
-        <v>0.0001483084332452479</v>
+        <v>-0.007500142224448908</v>
       </c>
       <c r="E41">
-        <v>0.007688491493470968</v>
+        <v>-0.001958175872925249</v>
       </c>
       <c r="F41">
-        <v>0.01465682423710265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00713091187631817</v>
+      </c>
+      <c r="G41">
+        <v>-0.01136061123422271</v>
+      </c>
+      <c r="H41">
+        <v>-0.03276064212386823</v>
+      </c>
+      <c r="I41">
+        <v>-0.0404550090967316</v>
+      </c>
+      <c r="J41">
+        <v>0.06045114210852404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.00204152150500161</v>
+        <v>0.01105845849877544</v>
       </c>
       <c r="C43">
-        <v>0.01598978198860731</v>
+        <v>0.04303977316066343</v>
       </c>
       <c r="D43">
-        <v>0.01395761758158975</v>
+        <v>-0.01525567805776587</v>
       </c>
       <c r="E43">
-        <v>-0.02789837812937594</v>
+        <v>0.02028280360920026</v>
       </c>
       <c r="F43">
-        <v>-0.02953619022212659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01429263392137489</v>
+      </c>
+      <c r="G43">
+        <v>-0.02917853021730664</v>
+      </c>
+      <c r="H43">
+        <v>-0.04305552272385432</v>
+      </c>
+      <c r="I43">
+        <v>-0.01348255780109125</v>
+      </c>
+      <c r="J43">
+        <v>0.044186112053353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01546363546332027</v>
+        <v>0.00537639464003769</v>
       </c>
       <c r="C44">
-        <v>0.0799770164243033</v>
+        <v>0.08605159303178622</v>
       </c>
       <c r="D44">
-        <v>0.05481903839771065</v>
+        <v>-0.03629796631288974</v>
       </c>
       <c r="E44">
-        <v>-0.101594942330905</v>
+        <v>0.09782954598112648</v>
       </c>
       <c r="F44">
-        <v>-0.02951464186700591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.008271735358362059</v>
+      </c>
+      <c r="G44">
+        <v>-0.02669186098823767</v>
+      </c>
+      <c r="H44">
+        <v>-0.02238533947269822</v>
+      </c>
+      <c r="I44">
+        <v>0.04231527713799818</v>
+      </c>
+      <c r="J44">
+        <v>-0.03655346253629497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.001388333647159976</v>
+        <v>0.0010518945748915</v>
       </c>
       <c r="C46">
-        <v>0.06032007176171469</v>
+        <v>0.0653186278621337</v>
       </c>
       <c r="D46">
-        <v>0.030153509673486</v>
+        <v>-0.01669247709494662</v>
       </c>
       <c r="E46">
-        <v>-0.05997022294995902</v>
+        <v>0.04668609086112045</v>
       </c>
       <c r="F46">
-        <v>-0.04815525391065548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.004976254220850883</v>
+      </c>
+      <c r="G46">
+        <v>-0.06018638289401419</v>
+      </c>
+      <c r="H46">
+        <v>-0.1121504715680909</v>
+      </c>
+      <c r="I46">
+        <v>0.01637253464906961</v>
+      </c>
+      <c r="J46">
+        <v>0.09744131503352552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.008983735032278405</v>
+        <v>0.02020370969852666</v>
       </c>
       <c r="C47">
-        <v>0.1115504822875961</v>
+        <v>0.09815630457323259</v>
       </c>
       <c r="D47">
-        <v>-0.02096177700221578</v>
+        <v>-0.02627989988097501</v>
       </c>
       <c r="E47">
-        <v>0.04609524567721578</v>
+        <v>-0.01733908641858641</v>
       </c>
       <c r="F47">
-        <v>0.02917946272831014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.002153113703909687</v>
+      </c>
+      <c r="G47">
+        <v>0.0008617438828672284</v>
+      </c>
+      <c r="H47">
+        <v>-0.07783880945688174</v>
+      </c>
+      <c r="I47">
+        <v>-0.03332991683647697</v>
+      </c>
+      <c r="J47">
+        <v>0.02213608971932457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01253292381023482</v>
+        <v>0.0163997817382273</v>
       </c>
       <c r="C48">
-        <v>0.04964174234315354</v>
+        <v>0.05699862599236758</v>
       </c>
       <c r="D48">
-        <v>-0.008771557112623783</v>
+        <v>-0.04278568993205893</v>
       </c>
       <c r="E48">
-        <v>-0.06693610418699332</v>
+        <v>0.03693201989959514</v>
       </c>
       <c r="F48">
-        <v>-0.03673068118464377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0002590576931189731</v>
+      </c>
+      <c r="G48">
+        <v>-0.03074734901660586</v>
+      </c>
+      <c r="H48">
+        <v>-0.1088242407283373</v>
+      </c>
+      <c r="I48">
+        <v>-0.009721549704974948</v>
+      </c>
+      <c r="J48">
+        <v>-0.06382521526955945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.004931402303582262</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01180171864961057</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0071481791802774</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.001063395430038878</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.00357385310536542</v>
+      </c>
+      <c r="G49">
+        <v>-0.008637761809283077</v>
+      </c>
+      <c r="H49">
+        <v>0.01814993459453578</v>
+      </c>
+      <c r="I49">
+        <v>0.006261074782639008</v>
+      </c>
+      <c r="J49">
+        <v>0.006264341469249829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.006256900735530395</v>
+        <v>0.01249979665081179</v>
       </c>
       <c r="C50">
-        <v>0.09323160269692882</v>
+        <v>0.09058659669063401</v>
       </c>
       <c r="D50">
-        <v>-0.01486631702680632</v>
+        <v>-0.01317372008015942</v>
       </c>
       <c r="E50">
-        <v>0.01031059015552436</v>
+        <v>-0.004097320432646653</v>
       </c>
       <c r="F50">
-        <v>0.03195308774424692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0131433047541082</v>
+      </c>
+      <c r="G50">
+        <v>0.02394215558163605</v>
+      </c>
+      <c r="H50">
+        <v>-0.06221576158820116</v>
+      </c>
+      <c r="I50">
+        <v>-0.06070651231183137</v>
+      </c>
+      <c r="J50">
+        <v>0.03543421439256375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.004423523757740602</v>
+        <v>-0.005234377301533571</v>
       </c>
       <c r="C51">
-        <v>0.05755477710292042</v>
+        <v>0.03905440085947155</v>
       </c>
       <c r="D51">
-        <v>0.06301058816757261</v>
+        <v>-0.01065197699654191</v>
       </c>
       <c r="E51">
-        <v>-0.07421810221320596</v>
+        <v>0.05270922750739936</v>
       </c>
       <c r="F51">
-        <v>-0.02489726663731703</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.00715148426857858</v>
+      </c>
+      <c r="G51">
+        <v>-0.027843538587794</v>
+      </c>
+      <c r="H51">
+        <v>-0.08657989698871013</v>
+      </c>
+      <c r="I51">
+        <v>0.02481461395155106</v>
+      </c>
+      <c r="J51">
+        <v>-0.1184619098973147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.0390827011773406</v>
+        <v>0.04972497998892385</v>
       </c>
       <c r="C53">
-        <v>0.1628553899707419</v>
+        <v>0.1478307057198082</v>
       </c>
       <c r="D53">
-        <v>-0.0696608737174341</v>
+        <v>-0.04872526990048724</v>
       </c>
       <c r="E53">
-        <v>0.05188496737345809</v>
+        <v>-0.09108314015782688</v>
       </c>
       <c r="F53">
-        <v>-0.00447711748838962</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.001695603221393398</v>
+      </c>
+      <c r="G53">
+        <v>0.04865930751130884</v>
+      </c>
+      <c r="H53">
+        <v>-0.008670137967047367</v>
+      </c>
+      <c r="I53">
+        <v>-0.05058349346600492</v>
+      </c>
+      <c r="J53">
+        <v>0.01962128273249454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.004985805429041736</v>
+        <v>0.01248950624060392</v>
       </c>
       <c r="C54">
-        <v>0.05869250712934868</v>
+        <v>0.07146652222944705</v>
       </c>
       <c r="D54">
-        <v>0.04019398721705804</v>
+        <v>0.005951660194876929</v>
       </c>
       <c r="E54">
-        <v>-0.02492490873326736</v>
+        <v>0.02599252712231953</v>
       </c>
       <c r="F54">
-        <v>-0.0243559284045816</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002017075449236031</v>
+      </c>
+      <c r="G54">
+        <v>-0.02949259755324879</v>
+      </c>
+      <c r="H54">
+        <v>-0.07923411022250269</v>
+      </c>
+      <c r="I54">
+        <v>0.01518796591758728</v>
+      </c>
+      <c r="J54">
+        <v>0.04130433238177213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02371489039229785</v>
+        <v>0.02729328469881275</v>
       </c>
       <c r="C55">
-        <v>0.1250578295907182</v>
+        <v>0.1069504281011052</v>
       </c>
       <c r="D55">
-        <v>-0.06504255556647601</v>
+        <v>-0.05037488835572343</v>
       </c>
       <c r="E55">
-        <v>0.01859901244428936</v>
+        <v>-0.06672384679001289</v>
       </c>
       <c r="F55">
-        <v>0.006864390438367299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01404196349528375</v>
+      </c>
+      <c r="G55">
+        <v>0.02247470496586187</v>
+      </c>
+      <c r="H55">
+        <v>-0.01847005320592477</v>
+      </c>
+      <c r="I55">
+        <v>-0.008481410076826413</v>
+      </c>
+      <c r="J55">
+        <v>0.005520671401630387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04357366154668256</v>
+        <v>0.04326952787011238</v>
       </c>
       <c r="C56">
-        <v>0.1952188084027538</v>
+        <v>0.1775665179111068</v>
       </c>
       <c r="D56">
-        <v>-0.08804063761520201</v>
+        <v>-0.07127747617727924</v>
       </c>
       <c r="E56">
-        <v>0.08847548192900952</v>
+        <v>-0.1261807146353082</v>
       </c>
       <c r="F56">
-        <v>0.04734600376834125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.006535601199706816</v>
+      </c>
+      <c r="G56">
+        <v>0.1062574505783596</v>
+      </c>
+      <c r="H56">
+        <v>-0.003092561504754218</v>
+      </c>
+      <c r="I56">
+        <v>-0.04226704444416138</v>
+      </c>
+      <c r="J56">
+        <v>-0.02439288515830355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01544648841430806</v>
+        <v>0.009898178365632677</v>
       </c>
       <c r="C58">
-        <v>0.1827261151463503</v>
+        <v>0.1689796361597945</v>
       </c>
       <c r="D58">
-        <v>0.2428030944157562</v>
+        <v>0.01583443010002138</v>
       </c>
       <c r="E58">
-        <v>-0.1899796149405811</v>
+        <v>0.2930625936603469</v>
       </c>
       <c r="F58">
-        <v>0.1034560148767199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.06847791305718356</v>
+      </c>
+      <c r="G58">
+        <v>0.1768227606307355</v>
+      </c>
+      <c r="H58">
+        <v>-0.02298390539465653</v>
+      </c>
+      <c r="I58">
+        <v>0.05823162778773056</v>
+      </c>
+      <c r="J58">
+        <v>-0.3565925441284336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.25987588729427</v>
+        <v>0.2774720457451015</v>
       </c>
       <c r="C59">
-        <v>-0.01478175216396383</v>
+        <v>-0.03203276308961366</v>
       </c>
       <c r="D59">
-        <v>0.07006215289306558</v>
+        <v>0.01372479182694714</v>
       </c>
       <c r="E59">
-        <v>-0.001773544479329681</v>
+        <v>0.04905700099406156</v>
       </c>
       <c r="F59">
-        <v>0.01431682874405149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01604819305178932</v>
+      </c>
+      <c r="G59">
+        <v>0.01397973066654335</v>
+      </c>
+      <c r="H59">
+        <v>0.02573186579508745</v>
+      </c>
+      <c r="I59">
+        <v>-0.09700179664314629</v>
+      </c>
+      <c r="J59">
+        <v>-0.008638757677050723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1176867760714792</v>
+        <v>0.1454372191395246</v>
       </c>
       <c r="C60">
-        <v>0.1524531669460552</v>
+        <v>0.1628722410339477</v>
       </c>
       <c r="D60">
-        <v>-0.05551474229382106</v>
+        <v>-0.03443655998402757</v>
       </c>
       <c r="E60">
-        <v>0.0007574746408295583</v>
+        <v>-0.04633844172793156</v>
       </c>
       <c r="F60">
-        <v>-0.2265499043115484</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08479649083402749</v>
+      </c>
+      <c r="G60">
+        <v>-0.2288196809614707</v>
+      </c>
+      <c r="H60">
+        <v>0.2778389759086332</v>
+      </c>
+      <c r="I60">
+        <v>0.06941492638178778</v>
+      </c>
+      <c r="J60">
+        <v>-0.004043383415561097</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.005208921719012827</v>
+        <v>0.01436662003737302</v>
       </c>
       <c r="C61">
-        <v>0.09604186067428075</v>
+        <v>0.1064254610270547</v>
       </c>
       <c r="D61">
-        <v>-0.003546604186599539</v>
+        <v>-0.03430511331976713</v>
       </c>
       <c r="E61">
-        <v>-0.0356601424805307</v>
+        <v>0.0119542679624563</v>
       </c>
       <c r="F61">
-        <v>-0.07238204725620642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.004587150607938286</v>
+      </c>
+      <c r="G61">
+        <v>-0.05586887100372685</v>
+      </c>
+      <c r="H61">
+        <v>-0.04353095493890446</v>
+      </c>
+      <c r="I61">
+        <v>0.004713672222777377</v>
+      </c>
+      <c r="J61">
+        <v>0.03906610166621603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0003272851149453001</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004754626498944845</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.006063018032051751</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01361629565559962</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0009135559673494082</v>
+      </c>
+      <c r="G62">
+        <v>-0.01956218686892593</v>
+      </c>
+      <c r="H62">
+        <v>-0.01245856206857371</v>
+      </c>
+      <c r="I62">
+        <v>0.007946888503239057</v>
+      </c>
+      <c r="J62">
+        <v>0.008980737225419913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.004602943822196879</v>
+        <v>0.01723857215115328</v>
       </c>
       <c r="C63">
-        <v>0.06117282453693721</v>
+        <v>0.07518346585988429</v>
       </c>
       <c r="D63">
-        <v>0.01302840589284637</v>
+        <v>-0.03398709534422293</v>
       </c>
       <c r="E63">
-        <v>-0.03371391720923902</v>
+        <v>0.02583109256968019</v>
       </c>
       <c r="F63">
-        <v>-0.04784782479848603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.004910225735994134</v>
+      </c>
+      <c r="G63">
+        <v>-0.04014307012256602</v>
+      </c>
+      <c r="H63">
+        <v>-0.06129324494744197</v>
+      </c>
+      <c r="I63">
+        <v>-0.0228749932935321</v>
+      </c>
+      <c r="J63">
+        <v>0.02215026786915887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.005812940967000184</v>
+        <v>0.0135659821044667</v>
       </c>
       <c r="C64">
-        <v>0.1269129580660637</v>
+        <v>0.1053591321743212</v>
       </c>
       <c r="D64">
-        <v>-0.05491268344619533</v>
+        <v>-0.02638397013388838</v>
       </c>
       <c r="E64">
-        <v>-0.01223787984704179</v>
+        <v>-0.001388708471034203</v>
       </c>
       <c r="F64">
-        <v>-0.04260079923063244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02844972784576635</v>
+      </c>
+      <c r="G64">
+        <v>-0.01929872454439419</v>
+      </c>
+      <c r="H64">
+        <v>-0.01170901738535147</v>
+      </c>
+      <c r="I64">
+        <v>0.005728094105795976</v>
+      </c>
+      <c r="J64">
+        <v>0.03739333169372994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01818978227201126</v>
+        <v>0.02601422995678599</v>
       </c>
       <c r="C65">
-        <v>0.0699111643222491</v>
+        <v>0.08735277819532504</v>
       </c>
       <c r="D65">
-        <v>0.04865175026245439</v>
+        <v>0.004797730259392864</v>
       </c>
       <c r="E65">
-        <v>-0.06804212987017681</v>
+        <v>0.07929837303724284</v>
       </c>
       <c r="F65">
-        <v>-0.05227026226573232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01273873306071587</v>
+      </c>
+      <c r="G65">
+        <v>-0.09740823255007174</v>
+      </c>
+      <c r="H65">
+        <v>0.01722329962493849</v>
+      </c>
+      <c r="I65">
+        <v>0.0608703273075103</v>
+      </c>
+      <c r="J65">
+        <v>-0.03157113422429175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.001800524545016035</v>
+        <v>0.006038021459036014</v>
       </c>
       <c r="C66">
-        <v>0.156291410501419</v>
+        <v>0.1611279964333208</v>
       </c>
       <c r="D66">
-        <v>0.05855025677123089</v>
+        <v>-0.0197827470812181</v>
       </c>
       <c r="E66">
-        <v>-0.08460508657194599</v>
+        <v>0.05631425867044266</v>
       </c>
       <c r="F66">
-        <v>-0.06361507358414296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.00822176246457861</v>
+      </c>
+      <c r="G66">
+        <v>-0.03974193126504134</v>
+      </c>
+      <c r="H66">
+        <v>-0.03763067749244624</v>
+      </c>
+      <c r="I66">
+        <v>0.02531822534889223</v>
+      </c>
+      <c r="J66">
+        <v>-0.0007591790673977828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01982371778297608</v>
+        <v>0.0185205606371348</v>
       </c>
       <c r="C67">
-        <v>0.04490521318886228</v>
+        <v>0.05902747612033638</v>
       </c>
       <c r="D67">
-        <v>-0.02768388533171866</v>
+        <v>-0.03072941344588614</v>
       </c>
       <c r="E67">
-        <v>-0.02400821788454983</v>
+        <v>0.007748593078181863</v>
       </c>
       <c r="F67">
-        <v>-0.01756072477384199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03473518430441506</v>
+      </c>
+      <c r="G67">
+        <v>-0.04279315594591901</v>
+      </c>
+      <c r="H67">
+        <v>-0.02985243706164</v>
+      </c>
+      <c r="I67">
+        <v>-0.02175101304164113</v>
+      </c>
+      <c r="J67">
+        <v>0.06371017912523402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2598643366071596</v>
+        <v>0.2876415224897509</v>
       </c>
       <c r="C68">
-        <v>-0.03249886911006975</v>
+        <v>-0.03911953062391823</v>
       </c>
       <c r="D68">
-        <v>0.06137394725274213</v>
+        <v>0.03525067297670451</v>
       </c>
       <c r="E68">
-        <v>-0.01288764806845477</v>
+        <v>0.06344766044728407</v>
       </c>
       <c r="F68">
-        <v>0.04826296779100815</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01380639749200988</v>
+      </c>
+      <c r="G68">
+        <v>0.04404731345240612</v>
+      </c>
+      <c r="H68">
+        <v>0.02114991330865617</v>
+      </c>
+      <c r="I68">
+        <v>-0.08357943974915674</v>
+      </c>
+      <c r="J68">
+        <v>0.006387378625284675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01324016595335097</v>
+        <v>0.009061351407989459</v>
       </c>
       <c r="C69">
-        <v>0.1070003466723119</v>
+        <v>0.07983489963360813</v>
       </c>
       <c r="D69">
-        <v>-0.0520933337239134</v>
+        <v>-0.02380354611652482</v>
       </c>
       <c r="E69">
-        <v>-0.004183109643352015</v>
+        <v>-0.01789014453436005</v>
       </c>
       <c r="F69">
-        <v>0.02327208834934336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004116126366873313</v>
+      </c>
+      <c r="G69">
+        <v>-0.005974158276355266</v>
+      </c>
+      <c r="H69">
+        <v>-0.05828430089600153</v>
+      </c>
+      <c r="I69">
+        <v>-0.03157975790114101</v>
+      </c>
+      <c r="J69">
+        <v>0.006878636820195867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2733900610513805</v>
+        <v>0.2746016111813384</v>
       </c>
       <c r="C71">
-        <v>-0.0419602260399034</v>
+        <v>-0.06119676506011778</v>
       </c>
       <c r="D71">
-        <v>0.05011260455157499</v>
+        <v>0.01871610986435714</v>
       </c>
       <c r="E71">
-        <v>0.02256325965658354</v>
+        <v>0.03848674906650325</v>
       </c>
       <c r="F71">
-        <v>-0.02986826985426643</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03480028768925941</v>
+      </c>
+      <c r="G71">
+        <v>-0.001020975318543181</v>
+      </c>
+      <c r="H71">
+        <v>-0.04991083967652591</v>
+      </c>
+      <c r="I71">
+        <v>-0.1146224973059206</v>
+      </c>
+      <c r="J71">
+        <v>-0.08163085524759246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05737654322581422</v>
+        <v>0.05804534562760683</v>
       </c>
       <c r="C72">
-        <v>0.1848243743465832</v>
+        <v>0.1589050831868323</v>
       </c>
       <c r="D72">
-        <v>-0.03994446697929776</v>
+        <v>-0.01990185597170055</v>
       </c>
       <c r="E72">
-        <v>-0.06306285458750072</v>
+        <v>-0.02174991048602372</v>
       </c>
       <c r="F72">
-        <v>-0.09307927332519528</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02012421854769927</v>
+      </c>
+      <c r="G72">
+        <v>-0.03199927132675283</v>
+      </c>
+      <c r="H72">
+        <v>0.05450132719535368</v>
+      </c>
+      <c r="I72">
+        <v>0.09306651534198697</v>
+      </c>
+      <c r="J72">
+        <v>0.02936253045507832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.09892124124701547</v>
+        <v>0.1477805705338148</v>
       </c>
       <c r="C73">
-        <v>0.1574749085767346</v>
+        <v>0.1998732535833032</v>
       </c>
       <c r="D73">
-        <v>-0.0959816969493644</v>
+        <v>-0.05377780862134143</v>
       </c>
       <c r="E73">
-        <v>0.02222705145914883</v>
+        <v>-0.1143239446160557</v>
       </c>
       <c r="F73">
-        <v>-0.3302911803222777</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09838869800675561</v>
+      </c>
+      <c r="G73">
+        <v>-0.3911516440473669</v>
+      </c>
+      <c r="H73">
+        <v>0.3330569473284981</v>
+      </c>
+      <c r="I73">
+        <v>-0.00187613904411052</v>
+      </c>
+      <c r="J73">
+        <v>-0.109258516689756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02801522713451869</v>
+        <v>0.03548582567614612</v>
       </c>
       <c r="C74">
-        <v>0.118740741236211</v>
+        <v>0.1157277305918158</v>
       </c>
       <c r="D74">
-        <v>-0.09901656308002225</v>
+        <v>-0.04622677713316205</v>
       </c>
       <c r="E74">
-        <v>0.05097229440671725</v>
+        <v>-0.07977593674009881</v>
       </c>
       <c r="F74">
-        <v>0.01929210449166587</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.004358095744202068</v>
+      </c>
+      <c r="G74">
+        <v>0.03177454905600845</v>
+      </c>
+      <c r="H74">
+        <v>-0.01538348025410751</v>
+      </c>
+      <c r="I74">
+        <v>-0.01263347655822763</v>
+      </c>
+      <c r="J74">
+        <v>0.00584577436201746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.0948858190986578</v>
+        <v>0.0685197098976067</v>
       </c>
       <c r="C75">
-        <v>0.2118784062786492</v>
+        <v>0.1948689560318083</v>
       </c>
       <c r="D75">
-        <v>-0.2058020037261079</v>
+        <v>-0.08818654615333349</v>
       </c>
       <c r="E75">
-        <v>0.1591495686116793</v>
+        <v>-0.2287356634892379</v>
       </c>
       <c r="F75">
-        <v>0.08237163622907354</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08262421665079421</v>
+      </c>
+      <c r="G75">
+        <v>0.1534608756899681</v>
+      </c>
+      <c r="H75">
+        <v>0.01719877790104455</v>
+      </c>
+      <c r="I75">
+        <v>-0.07080072570935297</v>
+      </c>
+      <c r="J75">
+        <v>0.05402774995715118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.04045792343905473</v>
+        <v>0.03906261878066968</v>
       </c>
       <c r="C76">
-        <v>0.1472651265895392</v>
+        <v>0.1422437398396605</v>
       </c>
       <c r="D76">
-        <v>-0.1031661541775583</v>
+        <v>-0.07517258949912342</v>
       </c>
       <c r="E76">
-        <v>0.05484533255432169</v>
+        <v>-0.1087651785408675</v>
       </c>
       <c r="F76">
-        <v>0.00408851791993176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.0005273279359487989</v>
+      </c>
+      <c r="G76">
+        <v>0.03132061452571008</v>
+      </c>
+      <c r="H76">
+        <v>-0.01375009218748442</v>
+      </c>
+      <c r="I76">
+        <v>-0.01831636575975374</v>
+      </c>
+      <c r="J76">
+        <v>0.02895488202898894</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.02391809536830061</v>
+        <v>0.02168118143143852</v>
       </c>
       <c r="C77">
-        <v>0.1745658672589821</v>
+        <v>0.2574727673539126</v>
       </c>
       <c r="D77">
-        <v>0.6331266461846894</v>
+        <v>0.9434902879461856</v>
       </c>
       <c r="E77">
-        <v>0.6591587120893644</v>
+        <v>-0.155166309333456</v>
       </c>
       <c r="F77">
-        <v>-0.1019516110524516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02390736313171515</v>
+      </c>
+      <c r="G77">
+        <v>0.001312019579581382</v>
+      </c>
+      <c r="H77">
+        <v>-0.04643041779550562</v>
+      </c>
+      <c r="I77">
+        <v>0.02146065343287286</v>
+      </c>
+      <c r="J77">
+        <v>0.005211871031843241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02462003348210995</v>
+        <v>0.02542229961215992</v>
       </c>
       <c r="C78">
-        <v>0.1560634853140628</v>
+        <v>0.1265378148435881</v>
       </c>
       <c r="D78">
-        <v>0.0571775801025293</v>
+        <v>-0.06468012607567813</v>
       </c>
       <c r="E78">
-        <v>-0.09903319551146901</v>
+        <v>0.03943996820482838</v>
       </c>
       <c r="F78">
-        <v>0.1161710436461457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02208591701461716</v>
+      </c>
+      <c r="G78">
+        <v>0.07268867043055491</v>
+      </c>
+      <c r="H78">
+        <v>-0.1351150085349925</v>
+      </c>
+      <c r="I78">
+        <v>0.149005912663265</v>
+      </c>
+      <c r="J78">
+        <v>-0.5007278107777481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05577162606402356</v>
+        <v>0.05704456774630508</v>
       </c>
       <c r="C79">
-        <v>0.2445892971141608</v>
+        <v>0.1854297582498392</v>
       </c>
       <c r="D79">
-        <v>-0.1779210707206015</v>
+        <v>-0.07093052217316556</v>
       </c>
       <c r="E79">
-        <v>0.134231325185803</v>
+        <v>-0.1813083633870206</v>
       </c>
       <c r="F79">
-        <v>0.1825062481619449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.00637411460015006</v>
+      </c>
+      <c r="G79">
+        <v>0.1980713270693329</v>
+      </c>
+      <c r="H79">
+        <v>-0.05925287605179221</v>
+      </c>
+      <c r="I79">
+        <v>-0.08348240827870344</v>
+      </c>
+      <c r="J79">
+        <v>-0.02846703780135886</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01495845847936029</v>
+        <v>0.007030227000016271</v>
       </c>
       <c r="C80">
-        <v>0.06866986550008992</v>
+        <v>0.06280148061600478</v>
       </c>
       <c r="D80">
-        <v>-0.02654671371702985</v>
+        <v>-0.04075525915210804</v>
       </c>
       <c r="E80">
-        <v>-0.01092033840481442</v>
+        <v>0.0275936362472247</v>
       </c>
       <c r="F80">
-        <v>-0.009145771535843929</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.07039325555118991</v>
+      </c>
+      <c r="G80">
+        <v>-0.04221358289036278</v>
+      </c>
+      <c r="H80">
+        <v>0.05332722295033268</v>
+      </c>
+      <c r="I80">
+        <v>-0.05483512240396834</v>
+      </c>
+      <c r="J80">
+        <v>0.076288607765058</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03188668306781864</v>
+        <v>0.02122483583469732</v>
       </c>
       <c r="C81">
-        <v>0.1291062024926098</v>
+        <v>0.1181669412422236</v>
       </c>
       <c r="D81">
-        <v>-0.1284250941879602</v>
+        <v>-0.04766569152049377</v>
       </c>
       <c r="E81">
-        <v>0.1088762556360724</v>
+        <v>-0.1017651751032568</v>
       </c>
       <c r="F81">
-        <v>0.04975234210502291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01362817935414328</v>
+      </c>
+      <c r="G81">
+        <v>0.09006117683999848</v>
+      </c>
+      <c r="H81">
+        <v>-0.0709428605553253</v>
+      </c>
+      <c r="I81">
+        <v>-0.08900679942675976</v>
+      </c>
+      <c r="J81">
+        <v>0.03259982099622297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05330890239113128</v>
+        <v>0.0479574634165206</v>
       </c>
       <c r="C82">
-        <v>0.1569613132323836</v>
+        <v>0.1325579814138057</v>
       </c>
       <c r="D82">
-        <v>-0.1406840353122417</v>
+        <v>-0.07386146059350605</v>
       </c>
       <c r="E82">
-        <v>0.07715341974182689</v>
+        <v>-0.1232808256036687</v>
       </c>
       <c r="F82">
-        <v>0.008762763316206665</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.0005246023554201226</v>
+      </c>
+      <c r="G82">
+        <v>0.05857250838979527</v>
+      </c>
+      <c r="H82">
+        <v>-0.03308079260713902</v>
+      </c>
+      <c r="I82">
+        <v>-0.05622832554769199</v>
+      </c>
+      <c r="J82">
+        <v>0.0183798148669751</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.005200021620000541</v>
+        <v>0.004201069905256512</v>
       </c>
       <c r="C83">
-        <v>0.05068390254286178</v>
+        <v>0.0126112309725012</v>
       </c>
       <c r="D83">
-        <v>0.1160124251606807</v>
+        <v>0.04225733756839541</v>
       </c>
       <c r="E83">
-        <v>0.07467759596414286</v>
+        <v>0.0857227405330047</v>
       </c>
       <c r="F83">
-        <v>0.5958764664628673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.9239365870864149</v>
+      </c>
+      <c r="G83">
+        <v>0.2367417071400835</v>
+      </c>
+      <c r="H83">
+        <v>0.05098897010224237</v>
+      </c>
+      <c r="I83">
+        <v>-0.1201372195148417</v>
+      </c>
+      <c r="J83">
+        <v>0.009487431337686019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.002550602494602057</v>
+        <v>-0.001838610573212107</v>
       </c>
       <c r="C84">
-        <v>0.03296048417230725</v>
+        <v>0.03821290680627469</v>
       </c>
       <c r="D84">
-        <v>0.02520179117051626</v>
+        <v>-0.04622124748355702</v>
       </c>
       <c r="E84">
-        <v>-0.08956419916112937</v>
+        <v>0.07591254612009743</v>
       </c>
       <c r="F84">
-        <v>0.01188126859837205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04917998667832456</v>
+      </c>
+      <c r="G84">
+        <v>0.0380234902294463</v>
+      </c>
+      <c r="H84">
+        <v>-0.06594621638275729</v>
+      </c>
+      <c r="I84">
+        <v>0.04631336271444096</v>
+      </c>
+      <c r="J84">
+        <v>0.07761716433096397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03929495762477806</v>
+        <v>0.0313359286473085</v>
       </c>
       <c r="C85">
-        <v>0.1710621405701561</v>
+        <v>0.1399701270405124</v>
       </c>
       <c r="D85">
-        <v>-0.150234003858809</v>
+        <v>-0.08597457937926316</v>
       </c>
       <c r="E85">
-        <v>0.09918056134783253</v>
+        <v>-0.1760509431071993</v>
       </c>
       <c r="F85">
-        <v>0.1295776832235986</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.008569091150606941</v>
+      </c>
+      <c r="G85">
+        <v>0.1258860449815918</v>
+      </c>
+      <c r="H85">
+        <v>-0.01956113446525141</v>
+      </c>
+      <c r="I85">
+        <v>-0.07356406258895629</v>
+      </c>
+      <c r="J85">
+        <v>0.04091050886500186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03441785556000096</v>
+        <v>0.01841619105999704</v>
       </c>
       <c r="C86">
-        <v>0.04904639585630215</v>
+        <v>0.07096129589185692</v>
       </c>
       <c r="D86">
-        <v>0.09114999729038617</v>
+        <v>0.003270303454391458</v>
       </c>
       <c r="E86">
-        <v>-0.01485573721047668</v>
+        <v>0.06563308450698449</v>
       </c>
       <c r="F86">
-        <v>-0.05687427778108512</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.04923384678295104</v>
+      </c>
+      <c r="G86">
+        <v>0.06003083132295337</v>
+      </c>
+      <c r="H86">
+        <v>-0.08319197725547091</v>
+      </c>
+      <c r="I86">
+        <v>-0.05915035580189906</v>
+      </c>
+      <c r="J86">
+        <v>-0.1875851012774943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02820629305754376</v>
+        <v>0.01708634297140357</v>
       </c>
       <c r="C87">
-        <v>0.1257216727039187</v>
+        <v>0.123741872588168</v>
       </c>
       <c r="D87">
-        <v>0.09644400006201607</v>
+        <v>0.01191485467855453</v>
       </c>
       <c r="E87">
-        <v>-0.1012870879682979</v>
+        <v>0.1016343827207844</v>
       </c>
       <c r="F87">
-        <v>-0.007195671129564474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01987428546100283</v>
+      </c>
+      <c r="G87">
+        <v>0.01817814626435764</v>
+      </c>
+      <c r="H87">
+        <v>-0.01743575690632865</v>
+      </c>
+      <c r="I87">
+        <v>0.1354433450926949</v>
+      </c>
+      <c r="J87">
+        <v>-0.08817877313539975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.02115930206202515</v>
+        <v>0.03528720245516297</v>
       </c>
       <c r="C88">
-        <v>0.07507555575250439</v>
+        <v>0.08320696752453381</v>
       </c>
       <c r="D88">
-        <v>-0.0639659671753223</v>
+        <v>-0.02991080899532926</v>
       </c>
       <c r="E88">
-        <v>0.0150803438397804</v>
+        <v>-0.02043627354985431</v>
       </c>
       <c r="F88">
-        <v>-0.02894741622384203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01075344607186194</v>
+      </c>
+      <c r="G88">
+        <v>-0.02307661137392798</v>
+      </c>
+      <c r="H88">
+        <v>0.001234663479707189</v>
+      </c>
+      <c r="I88">
+        <v>-0.02341956745329637</v>
+      </c>
+      <c r="J88">
+        <v>0.07615445571653552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4459373690767023</v>
+        <v>0.4071975713617887</v>
       </c>
       <c r="C89">
-        <v>-0.09314695682538977</v>
+        <v>-0.1122854865768707</v>
       </c>
       <c r="D89">
-        <v>-0.06008103538302975</v>
+        <v>0.0105097246201684</v>
       </c>
       <c r="E89">
-        <v>-0.2640223755061746</v>
+        <v>0.05914635328667948</v>
       </c>
       <c r="F89">
-        <v>0.1405811307655894</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.09623011007662587</v>
+      </c>
+      <c r="G89">
+        <v>0.07835302794788807</v>
+      </c>
+      <c r="H89">
+        <v>-0.06861972790035727</v>
+      </c>
+      <c r="I89">
+        <v>0.7593042798458266</v>
+      </c>
+      <c r="J89">
+        <v>0.1224496757106668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3195781468788049</v>
+        <v>0.3223413490945429</v>
       </c>
       <c r="C90">
-        <v>-0.04453357455691365</v>
+        <v>-0.06132798099506464</v>
       </c>
       <c r="D90">
-        <v>0.06703063893408887</v>
+        <v>0.01829281393289888</v>
       </c>
       <c r="E90">
-        <v>0.009537463613377609</v>
+        <v>0.03912402371639109</v>
       </c>
       <c r="F90">
-        <v>0.01165129660209121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01722057839272514</v>
+      </c>
+      <c r="G90">
+        <v>0.0184627373740156</v>
+      </c>
+      <c r="H90">
+        <v>0.007089960008089398</v>
+      </c>
+      <c r="I90">
+        <v>-0.1596479315628938</v>
+      </c>
+      <c r="J90">
+        <v>-0.0006612758512677467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.03975747308659611</v>
+        <v>0.05004538144838531</v>
       </c>
       <c r="C91">
-        <v>0.1374584942347017</v>
+        <v>0.1183258363446731</v>
       </c>
       <c r="D91">
-        <v>-0.08604075935829147</v>
+        <v>-0.03828139830908502</v>
       </c>
       <c r="E91">
-        <v>0.06901664696376882</v>
+        <v>-0.09452831150316257</v>
       </c>
       <c r="F91">
-        <v>0.05836034218553392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.02967807954573575</v>
+      </c>
+      <c r="G91">
+        <v>0.06900552088677628</v>
+      </c>
+      <c r="H91">
+        <v>-0.01248780627016959</v>
+      </c>
+      <c r="I91">
+        <v>-0.02869968646004974</v>
+      </c>
+      <c r="J91">
+        <v>0.03275487220304255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3487278442471167</v>
+        <v>0.3494175370539535</v>
       </c>
       <c r="C92">
-        <v>-0.09895501075748793</v>
+        <v>-0.1129039585450911</v>
       </c>
       <c r="D92">
-        <v>0.06664525925189731</v>
+        <v>0.04846130850181415</v>
       </c>
       <c r="E92">
-        <v>0.01947112122104577</v>
+        <v>0.06379126222940072</v>
       </c>
       <c r="F92">
-        <v>-0.06713582484128482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09976688467717956</v>
+      </c>
+      <c r="G92">
+        <v>0.004149747645578013</v>
+      </c>
+      <c r="H92">
+        <v>-0.04660642195563095</v>
+      </c>
+      <c r="I92">
+        <v>-0.1512830121074839</v>
+      </c>
+      <c r="J92">
+        <v>0.01218635249193756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3336301854179926</v>
+        <v>0.324292564545656</v>
       </c>
       <c r="C93">
-        <v>-0.08159278844077243</v>
+        <v>-0.1054709080103766</v>
       </c>
       <c r="D93">
-        <v>-0.01257749037764277</v>
+        <v>-0.003319896909017732</v>
       </c>
       <c r="E93">
-        <v>0.03150810191678204</v>
+        <v>-0.003351621272435941</v>
       </c>
       <c r="F93">
-        <v>-0.001784482622489795</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01931777434812488</v>
+      </c>
+      <c r="G93">
+        <v>0.03068352136348831</v>
+      </c>
+      <c r="H93">
+        <v>-0.03979035219791806</v>
+      </c>
+      <c r="I93">
+        <v>-0.1220123186384647</v>
+      </c>
+      <c r="J93">
+        <v>-0.04503450494433107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08911440174625133</v>
+        <v>0.08331631215300739</v>
       </c>
       <c r="C94">
-        <v>0.2252808901887148</v>
+        <v>0.1987917016476621</v>
       </c>
       <c r="D94">
-        <v>-0.2481576767158298</v>
+        <v>-0.1137557995031863</v>
       </c>
       <c r="E94">
-        <v>0.1412024060083791</v>
+        <v>-0.3176499358132481</v>
       </c>
       <c r="F94">
-        <v>0.2314238404855409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0385931782396706</v>
+      </c>
+      <c r="G94">
+        <v>0.3828961187334858</v>
+      </c>
+      <c r="H94">
+        <v>0.03757956454901906</v>
+      </c>
+      <c r="I94">
+        <v>0.2057922571318482</v>
+      </c>
+      <c r="J94">
+        <v>0.1701739458354556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02500033877815844</v>
+        <v>0.0329747203024787</v>
       </c>
       <c r="C95">
-        <v>0.06699568118407546</v>
+        <v>0.1140750897185694</v>
       </c>
       <c r="D95">
-        <v>-0.002059867685745361</v>
+        <v>-0.006420443682037514</v>
       </c>
       <c r="E95">
-        <v>-0.000859462968379632</v>
+        <v>0.003371383135545129</v>
       </c>
       <c r="F95">
-        <v>-0.1355382922983246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02540367674302214</v>
+      </c>
+      <c r="G95">
+        <v>-0.1259352411940163</v>
+      </c>
+      <c r="H95">
+        <v>-0.03547402972152192</v>
+      </c>
+      <c r="I95">
+        <v>0.01707244809326525</v>
+      </c>
+      <c r="J95">
+        <v>0.135359350015258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004603572936342896</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.009929297477168324</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02084865357104504</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.01427316517548742</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01050646745866451</v>
+      </c>
+      <c r="G97">
+        <v>-0.03382579633088203</v>
+      </c>
+      <c r="H97">
+        <v>0.0121714209512257</v>
+      </c>
+      <c r="I97">
+        <v>-0.007615230915506023</v>
+      </c>
+      <c r="J97">
+        <v>-0.007453041573275324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.07878572940038857</v>
+        <v>0.1274963086844726</v>
       </c>
       <c r="C98">
-        <v>0.1511609826366646</v>
+        <v>0.1700747526280952</v>
       </c>
       <c r="D98">
-        <v>-0.03740367735724437</v>
+        <v>-0.06106401366429665</v>
       </c>
       <c r="E98">
-        <v>-0.01013784272890837</v>
+        <v>-0.07429539731962422</v>
       </c>
       <c r="F98">
-        <v>-0.2539556232243481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06218622856725492</v>
+      </c>
+      <c r="G98">
+        <v>-0.344006136209137</v>
+      </c>
+      <c r="H98">
+        <v>0.360575228281185</v>
+      </c>
+      <c r="I98">
+        <v>0.0378046105902133</v>
+      </c>
+      <c r="J98">
+        <v>-0.1422057013504033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.0004418802257134401</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.00701865970663794</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.007663620207085968</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.008962417268686384</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.01188101159719101</v>
+      </c>
+      <c r="G99">
+        <v>-0.009595856990430257</v>
+      </c>
+      <c r="H99">
+        <v>-0.03920160591146814</v>
+      </c>
+      <c r="I99">
+        <v>0.01932114570483008</v>
+      </c>
+      <c r="J99">
+        <v>0.004819251577586533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.00185068479586328</v>
+        <v>0.007199457764611623</v>
       </c>
       <c r="C101">
-        <v>0.05713228707331742</v>
+        <v>0.07877054074200411</v>
       </c>
       <c r="D101">
-        <v>0.04281250571112259</v>
+        <v>-0.01949449289455307</v>
       </c>
       <c r="E101">
-        <v>-0.08775753463640247</v>
+        <v>0.122404492392887</v>
       </c>
       <c r="F101">
-        <v>-0.07884372302995372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0506687721868628</v>
+      </c>
+      <c r="G101">
+        <v>-0.1583362695355823</v>
+      </c>
+      <c r="H101">
+        <v>-0.2510355819052018</v>
+      </c>
+      <c r="I101">
+        <v>0.04805318060624952</v>
+      </c>
+      <c r="J101">
+        <v>0.2344347604212175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.01817569105191979</v>
+        <v>0.007651586534308726</v>
       </c>
       <c r="C102">
-        <v>0.08445498818456797</v>
+        <v>0.04043384559719648</v>
       </c>
       <c r="D102">
-        <v>-0.06070625132658458</v>
+        <v>-0.01843670309800187</v>
       </c>
       <c r="E102">
-        <v>0.03969387858322315</v>
+        <v>-0.04660886915813453</v>
       </c>
       <c r="F102">
-        <v>0.04421903130451348</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01253674859646133</v>
+      </c>
+      <c r="G102">
+        <v>0.04237821829905242</v>
+      </c>
+      <c r="H102">
+        <v>-0.01299768746425833</v>
+      </c>
+      <c r="I102">
+        <v>0.006764295929034984</v>
+      </c>
+      <c r="J102">
+        <v>0.00402783832961733</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
